--- a/Textbook Companion/Chapter52/Practice Files/Dynamichistograms.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Dynamichistograms.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="14352" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -92,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,11 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +277,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -470,14 +476,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CDB-434D-BFCC-B14119D7DF8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -528,7 +539,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -560,7 +570,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -579,10 +595,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E5:E446" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="E5:E446"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="E5:E453" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="E5:E453" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Salary" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Salary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,6 +680,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -699,6 +732,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,24 +924,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="E5:I446"/>
+  <dimension ref="E5:I453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E423" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E441" sqref="E441"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>9.6</v>
       </c>
@@ -902,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>9.1</v>
       </c>
@@ -913,11 +963,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="array" ref="I7:I28">FREQUENCY(E6:E446,H7:H27)</f>
+        <f t="array" ref="I7:I28">FREQUENCY(E6:E453,H7:H27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>9</v>
       </c>
@@ -931,7 +981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>8.8800000000000008</v>
       </c>
@@ -945,7 +995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>8.75</v>
       </c>
@@ -956,7 +1006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>8.74</v>
       </c>
@@ -967,7 +1017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>8.66</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <v>8.64</v>
       </c>
@@ -989,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>8.4700000000000006</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <v>8.42</v>
       </c>
@@ -1011,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>8.4</v>
       </c>
@@ -1022,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <v>8.36</v>
       </c>
@@ -1033,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>8.33</v>
       </c>
@@ -1044,7 +1094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>8.25</v>
       </c>
@@ -1055,7 +1105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>8.1</v>
       </c>
@@ -1066,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>8</v>
       </c>
@@ -1077,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>8</v>
       </c>
@@ -1088,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <v>8</v>
       </c>
@@ -1099,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>7.9</v>
       </c>
@@ -1110,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <v>7.7</v>
       </c>
@@ -1121,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>7.56</v>
       </c>
@@ -1132,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>7.52</v>
       </c>
@@ -1143,10 +1193,10 @@
         <v>20</v>
       </c>
       <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>7.5</v>
       </c>
@@ -1154,2097 +1204,2132 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <v>7.42</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <v>7.39</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <v>7.36</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" s="1">
         <v>7.35</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <v>7.31</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>7.25</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <v>7.23</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <v>7.17</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>7.08</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <v>6.97</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <v>6.95</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <v>6.94</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <v>6.88</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="1">
         <v>6.87</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <v>6.84</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
         <v>6.72</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <v>6.66</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <v>6.48</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="1">
         <v>6.35</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <v>6.35</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="1">
         <v>6.3</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <v>6.27</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <v>6.18</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
         <v>5.61</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <v>5.59</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <v>5.51</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="2">
         <v>5.48</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="2">
         <v>5.39</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <v>5.39</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="2">
         <v>5.39</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="1">
         <v>5.39</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <v>5.39</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="1">
         <v>5.39</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <v>5.25</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <v>5.07</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="1">
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="2">
         <v>4.95</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="2">
         <v>4.79</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="1">
         <v>4.75</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="2">
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="1">
         <v>4.62</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="1">
         <v>4.55</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="2">
         <v>4.55</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="1">
         <v>4.49</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="1">
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="2">
         <v>4.34</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="1">
         <v>4.25</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="1">
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="2">
         <v>4.13</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="1">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="2">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="2">
         <v>3.93</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="1">
         <v>3.88</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="2">
         <v>3.85</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="1">
         <v>3.79</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="2">
         <v>3.75</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="1">
         <v>3.71</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="1">
         <v>3.63</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="2">
         <v>3.61</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="2">
         <v>3.59</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="1">
         <v>3.52</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="2">
         <v>3.52</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="1">
         <v>3.48</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="2">
         <v>3.41</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="2">
         <v>3.37</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="1">
         <v>3.37</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="2">
         <v>3.37</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="1">
         <v>3.34</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="2">
         <v>3.32</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="1">
         <v>3.25</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="2">
         <v>3.23</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="1">
         <v>3.16</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="2">
         <v>3.15</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="1">
         <v>3.14</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="1">
         <v>3.03</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="2">
         <v>3.03</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="1">
         <v>2.95</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="2">
         <v>2.95</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="1">
         <v>2.94</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="2">
         <v>2.92</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="1">
         <v>2.81</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="2">
         <v>2.67</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="1">
         <v>2.67</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="2">
         <v>2.64</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="1">
         <v>2.64</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="2">
         <v>2.58</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="1">
         <v>2.58</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="2">
         <v>2.58</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="1">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="1">
         <v>2.44</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="2">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="1">
         <v>2.42</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="2">
         <v>2.36</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="1">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="2">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="2">
         <v>2.25</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="1">
         <v>2.23</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="1">
         <v>2.19</v>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="2">
         <v>2.17</v>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="1">
         <v>2.16</v>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="2">
         <v>2.11</v>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="1">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="2">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="1">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="2">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="2">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="2">
         <v>15.9</v>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="1">
         <v>15.8</v>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="2">
         <v>15.7</v>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="1">
         <v>15.6</v>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="2">
         <v>15.6</v>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="1">
         <v>15.6</v>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="2">
         <v>15.6</v>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="1">
         <v>15.3</v>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="2">
         <v>15.3</v>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="1">
         <v>14.5</v>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="2">
         <v>13.9</v>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="1">
         <v>13.7</v>
       </c>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="1">
         <v>13.2</v>
       </c>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="1">
         <v>11.6</v>
       </c>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="2">
         <v>11.5</v>
       </c>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="1">
         <v>11.4</v>
       </c>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="1">
         <v>10.9</v>
       </c>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="1">
         <v>10.8</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="2">
         <v>10.7</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="1">
         <v>10.6</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="2">
         <v>10.6</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="1">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="2">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="1">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="2">
         <v>1.98</v>
       </c>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="1">
         <v>1.95</v>
       </c>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="2">
         <v>1.91</v>
       </c>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="1">
         <v>1.88</v>
       </c>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="2">
         <v>1.87</v>
       </c>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="1">
         <v>1.85</v>
       </c>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="2">
         <v>1.85</v>
       </c>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="1">
         <v>1.81</v>
       </c>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="1">
         <v>1.76</v>
       </c>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="1">
         <v>1.76</v>
       </c>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="1">
         <v>1.76</v>
       </c>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="2">
         <v>1.72</v>
       </c>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="2">
         <v>1.67</v>
       </c>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" s="2">
         <v>1.66</v>
       </c>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" s="1">
         <v>1.63</v>
       </c>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" s="2">
         <v>1.61</v>
       </c>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" s="2">
         <v>1.59</v>
       </c>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" s="1">
         <v>1.55</v>
       </c>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" s="2">
         <v>1.54</v>
       </c>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" s="1">
         <v>1.53</v>
       </c>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" s="2">
         <v>1.51</v>
       </c>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" s="2">
         <v>1.46</v>
       </c>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" s="2">
         <v>1.38</v>
       </c>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" s="1">
         <v>1.36</v>
       </c>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" s="2">
         <v>1.33</v>
       </c>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" s="1">
         <v>1.31</v>
       </c>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" s="1">
         <v>1.29</v>
       </c>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" s="2">
         <v>1.27</v>
       </c>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" s="2">
         <v>1.23</v>
       </c>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" s="1">
         <v>1.22</v>
       </c>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" s="2">
         <v>1.19</v>
       </c>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" s="1">
         <v>1.18</v>
       </c>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" s="2">
         <v>1.17</v>
       </c>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" s="2">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" s="1">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" s="2">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" s="1">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" s="2">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" s="1">
         <v>1.08</v>
       </c>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" s="2">
         <v>1.05</v>
       </c>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" s="1">
         <v>1.03</v>
       </c>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" s="2">
         <v>1.02</v>
       </c>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" s="1">
         <v>1.02</v>
       </c>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" s="2">
         <v>1.01</v>
       </c>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" s="1">
         <v>1.01</v>
       </c>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" s="2">
         <v>1.01</v>
       </c>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" s="1">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" s="2">
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" s="1">
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" s="2">
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" s="1">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" s="2">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" s="2">
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" s="2">
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" s="1">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" s="2">
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" s="1">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" s="2">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" s="2">
         <v>0.879</v>
       </c>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" s="1">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" s="2">
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" s="1">
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" s="2">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" s="1">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" s="2">
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" s="1">
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" s="2">
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" s="1">
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" s="2">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" s="2">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" s="2">
         <v>0.745</v>
       </c>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" s="1">
         <v>0.745</v>
       </c>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" s="2">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" s="1">
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" s="2">
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" s="1">
         <v>0.66</v>
       </c>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" s="2">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" s="2">
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" s="1">
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" s="2">
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" s="1">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" s="2">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" s="1">
         <v>19</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3259,24 +3344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
